--- a/data/companies.xlsx
+++ b/data/companies.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SY\98_이외 업무\56_interior\01_수신자료\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\clone-projects\clinic-interior\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91CDEE08-A6A4-464E-9876-C590F09020F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECDE78C-4002-42B1-9D8A-65C46926B1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46260" yWindow="2340" windowWidth="28800" windowHeight="15345" xr2:uid="{B8C579F1-5B08-4FF9-B8C2-BDAE7F5E4658}"/>
+    <workbookView xWindow="39945" yWindow="4395" windowWidth="28800" windowHeight="15345" xr2:uid="{B8C579F1-5B08-4FF9-B8C2-BDAE7F5E4658}"/>
   </bookViews>
   <sheets>
     <sheet name="InteriorCo" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="168">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1386,13 +1386,41 @@
       </rPr>
       <t>https://www.leumcc.co.kr/?gad_source=1&amp;gad_campaignid=21880783174&amp;gbraid=0AAAAA-GK3IALZBxcZ5_P7fRrcAMTrnRtF&amp;gclid=CjwKCAjwg7PDBhBxEiwAf1CVuw9RWQ5hN-c4eUKTKKDqvJn_QyROWGpTaCpphjM2r1TVIEBNGAkrJxoC1hUQAvD_BwE</t>
     </r>
+  </si>
+  <si>
+    <t>https://studioredoc.com/guide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스튜디오 리닥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://dasole.kr/portfolio-1/?utm_source=googlekeywordad&amp;utm_medium=googlesa&amp;utm_campaign=hospitalinterior&amp;utm_term=%7Bkeyword%7D&amp;utm_content=SAcontent_1&amp;gad_source=1&amp;gad_campaignid=22167785453&amp;gbraid=0AAAAACVUwpEENufn-uNbU6yg-FxnEly22&amp;gclid=Cj0KCQiA4pvMBhDYARIsAGfgwvzoUG7BQ_kz6LTYsLzo33so1aFtRE0laFUykktQxi3DuB7_qgKCA1AaAoHwEALw_wcB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다솔디자인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1440,6 +1468,15 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1540,12 +1577,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1588,9 +1628,13 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1922,10 +1966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C02C653-59D8-4803-8B22-51A64ACC7257}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3069,6 +3113,37 @@
       </c>
       <c r="F57" s="3" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
+        <v>57</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="4">
+        <v>58</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3161,6 +3236,8 @@
     <hyperlink ref="D56" r:id="rId85" xr:uid="{6003096F-9445-415B-9E08-82C8A8A09820}"/>
     <hyperlink ref="E56" r:id="rId86" xr:uid="{DA96D380-1C07-497C-9695-EEAB7B6437CA}"/>
     <hyperlink ref="E57" r:id="rId87" xr:uid="{4369F884-99F4-482B-A34A-FFAB799ABAF9}"/>
+    <hyperlink ref="E58" r:id="rId88" xr:uid="{D5630625-51D7-44AE-BE8B-FAB303D5070C}"/>
+    <hyperlink ref="E59" r:id="rId89" display="https://dasole.kr/portfolio-1/?utm_source=googlekeywordad&amp;utm_medium=googlesa&amp;utm_campaign=hospitalinterior&amp;utm_term=%7Bkeyword%7D&amp;utm_content=SAcontent_1&amp;gad_source=1&amp;gad_campaignid=22167785453&amp;gbraid=0AAAAACVUwpEENufn-uNbU6yg-FxnEly22&amp;gclid=Cj0KCQiA4pvMBhDYARIsAGfgwvzoUG7BQ_kz6LTYsLzo33so1aFtRE0laFUykktQxi3DuB7_qgKCA1AaAoHwEALw_wcB" xr:uid="{798AA91F-C0D1-45AF-AE9E-7131593A06A0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/companies.xlsx
+++ b/data/companies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\clone-projects\clinic-interior\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECDE78C-4002-42B1-9D8A-65C46926B1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3753F6D0-3278-4582-A9EB-9FE297F26401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39945" yWindow="4395" windowWidth="28800" windowHeight="15345" xr2:uid="{B8C579F1-5B08-4FF9-B8C2-BDAE7F5E4658}"/>
+    <workbookView xWindow="44310" yWindow="3645" windowWidth="28800" windowHeight="15345" xr2:uid="{B8C579F1-5B08-4FF9-B8C2-BDAE7F5E4658}"/>
   </bookViews>
   <sheets>
     <sheet name="InteriorCo" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="167">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1389,10 +1389,6 @@
   </si>
   <si>
     <t>https://studioredoc.com/guide</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1968,8 +1964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C02C653-59D8-4803-8B22-51A64ACC7257}">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3120,16 +3116,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>164</v>
+      <c r="D58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E58" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="F58" s="4" t="s">
-        <v>162</v>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -3137,13 +3136,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>167</v>
+      <c r="D59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/companies.xlsx
+++ b/data/companies.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\clone-projects\clinic-interior\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\clinic-interior\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3753F6D0-3278-4582-A9EB-9FE297F26401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776368CC-DAA5-4031-BF0C-81A68847DB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44310" yWindow="3645" windowWidth="28800" windowHeight="15345" xr2:uid="{B8C579F1-5B08-4FF9-B8C2-BDAE7F5E4658}"/>
+    <workbookView xWindow="44745" yWindow="2910" windowWidth="22140" windowHeight="15345" xr2:uid="{B8C579F1-5B08-4FF9-B8C2-BDAE7F5E4658}"/>
   </bookViews>
   <sheets>
     <sheet name="InteriorCo" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="198">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1409,6 +1409,130 @@
   </si>
   <si>
     <t>서울</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두드림디자인컴퍼니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://dodreamdc.co.kr/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인투익스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.intoex.co.kr/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.instagram.com/intoex_design/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>㈜참신디자인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://charmshin.com/page_yPKj89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.instagram.com/charmshin_design/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>㈜소통21/디자인오드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://so-tong21.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.instagram.com/designodd7/?igshid=YmMyMTA2M2Y%3D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.9space.co.kr/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메디데스크 ㈜공간연구소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.instagram.com/medidesk_9space/#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스코디자인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.design-sco.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에픽인테리어스튜디오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.epic-interior.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이브디자인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.pavedesign.co.kr/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.instagram.com/pave__design/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>㈜우리의장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.wooriint.co.kr/home/index.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.instagram.com/wooriint/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메이드바이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.made-by.co.kr/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그레이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.gracedesign.co.kr/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핀토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.finto.co.kr/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1581,7 +1705,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1625,6 +1749,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1962,10 +2092,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C02C653-59D8-4803-8B22-51A64ACC7257}">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="K79" sqref="K79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3148,6 +3278,246 @@
         <v>164</v>
       </c>
       <c r="F59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="4">
+        <v>59</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="4">
+        <v>60</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="4">
+        <v>61</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="4">
+        <v>62</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="4">
+        <v>63</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="4">
+        <v>64</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="4">
+        <v>65</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="4">
+        <v>66</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="4">
+        <v>67</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="4">
+        <v>68</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="4">
+        <v>69</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="4">
+        <v>70</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="F71" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3243,6 +3613,24 @@
     <hyperlink ref="E57" r:id="rId87" xr:uid="{4369F884-99F4-482B-A34A-FFAB799ABAF9}"/>
     <hyperlink ref="E58" r:id="rId88" xr:uid="{D5630625-51D7-44AE-BE8B-FAB303D5070C}"/>
     <hyperlink ref="E59" r:id="rId89" display="https://dasole.kr/portfolio-1/?utm_source=googlekeywordad&amp;utm_medium=googlesa&amp;utm_campaign=hospitalinterior&amp;utm_term=%7Bkeyword%7D&amp;utm_content=SAcontent_1&amp;gad_source=1&amp;gad_campaignid=22167785453&amp;gbraid=0AAAAACVUwpEENufn-uNbU6yg-FxnEly22&amp;gclid=Cj0KCQiA4pvMBhDYARIsAGfgwvzoUG7BQ_kz6LTYsLzo33so1aFtRE0laFUykktQxi3DuB7_qgKCA1AaAoHwEALw_wcB" xr:uid="{798AA91F-C0D1-45AF-AE9E-7131593A06A0}"/>
+    <hyperlink ref="E60" r:id="rId90" xr:uid="{06FD05D2-FE76-402E-AD8C-9BC827244333}"/>
+    <hyperlink ref="E61" r:id="rId91" xr:uid="{B9444457-A5C0-40B7-AD5F-B8C8C6FD9843}"/>
+    <hyperlink ref="D61" r:id="rId92" xr:uid="{3A2F7BC1-A638-463F-869A-4C3D5062E33D}"/>
+    <hyperlink ref="E62" r:id="rId93" xr:uid="{C9F33307-561D-47C7-A69D-C5B6CA726DA8}"/>
+    <hyperlink ref="D62" r:id="rId94" xr:uid="{4AD300F0-DE4E-4992-8439-543DBE7A6725}"/>
+    <hyperlink ref="E63" r:id="rId95" xr:uid="{37AB3903-153A-4643-9A10-80442415BF1A}"/>
+    <hyperlink ref="D63" r:id="rId96" xr:uid="{F07E20FF-7448-4C9C-8486-1D7FA20B24A2}"/>
+    <hyperlink ref="E64" r:id="rId97" xr:uid="{B1A92DE3-D529-4026-A3EF-299C7CA48FC0}"/>
+    <hyperlink ref="D64" r:id="rId98" xr:uid="{48CEAC3B-9452-4D5E-BBD8-A84D86260A93}"/>
+    <hyperlink ref="E65" r:id="rId99" xr:uid="{3B711221-2AD5-40EF-8A77-9EC664C01819}"/>
+    <hyperlink ref="E66" r:id="rId100" xr:uid="{108FD0F0-0D53-467B-AB93-7AFC9E7EDD32}"/>
+    <hyperlink ref="E67" r:id="rId101" xr:uid="{BF9385D9-B215-4B75-8610-29EA15C151EF}"/>
+    <hyperlink ref="D67" r:id="rId102" xr:uid="{40A83DDF-3BD6-4DAF-B424-8A9A55B74107}"/>
+    <hyperlink ref="E68" r:id="rId103" xr:uid="{71E83002-8F2A-4676-A3EA-88D8586656EF}"/>
+    <hyperlink ref="D68" r:id="rId104" xr:uid="{916C2452-8466-43B6-9337-9324970CA156}"/>
+    <hyperlink ref="E69" r:id="rId105" xr:uid="{73C9C816-E114-46B7-AB85-BA887A4C0C99}"/>
+    <hyperlink ref="E70" r:id="rId106" xr:uid="{EE1F7ACF-CF56-4F57-AFCB-7AB2061CD4FA}"/>
+    <hyperlink ref="E71" r:id="rId107" xr:uid="{EB1D0BD6-FD3D-4428-B6D8-3BF53FBE89BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
